--- a/data/clean/data_quality_report_CLEAN.xlsx
+++ b/data/clean/data_quality_report_CLEAN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
   <si>
     <t>Columna</t>
   </si>
@@ -38,6 +38,9 @@
     <t>email</t>
   </si>
   <si>
+    <t>phone</t>
+  </si>
+  <si>
     <t>age</t>
   </si>
   <si>
@@ -71,7 +74,10 @@
     <t>N/A/N/A</t>
   </si>
   <si>
-    <t>0/1000</t>
+    <t>0/258</t>
+  </si>
+  <si>
+    <t>1/258</t>
   </si>
   <si>
     <t>purchase_date</t>
@@ -447,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -472,13 +478,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -486,13 +492,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -500,13 +506,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -517,10 +523,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -531,38 +537,38 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -570,27 +576,97 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -622,156 +698,156 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/clean/data_quality_report_CLEAN.xlsx
+++ b/data/clean/data_quality_report_CLEAN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="25">
   <si>
     <t>Columna</t>
   </si>
@@ -38,9 +38,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -74,10 +71,7 @@
     <t>N/A/N/A</t>
   </si>
   <si>
-    <t>0/258</t>
-  </si>
-  <si>
-    <t>1/258</t>
+    <t>0/1000</t>
   </si>
   <si>
     <t>purchase_date</t>
@@ -453,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,13 +472,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -492,13 +486,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -506,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -523,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -537,38 +531,38 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -576,97 +570,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -698,156 +622,156 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
         <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/clean/data_quality_report_CLEAN.xlsx
+++ b/data/clean/data_quality_report_CLEAN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="26">
   <si>
     <t>Columna</t>
   </si>
@@ -74,13 +74,7 @@
     <t>N/A/N/A</t>
   </si>
   <si>
-    <t>0/1000</t>
-  </si>
-  <si>
-    <t>108/1000</t>
-  </si>
-  <si>
-    <t>98/1000</t>
+    <t>0/185</t>
   </si>
   <si>
     <t>purchase_date</t>
@@ -526,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -582,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -596,10 +590,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -610,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -701,7 +695,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -715,7 +709,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -724,12 +718,12 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -738,12 +732,12 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -752,12 +746,12 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -766,12 +760,12 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -785,7 +779,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -794,12 +788,12 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -808,12 +802,12 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -822,12 +816,12 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -841,7 +835,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -850,7 +844,7 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
